--- a/2. 项目规划/《衣舍》项目_测试用例.xlsx
+++ b/2. 项目规划/《衣舍》项目_测试用例.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0761683-F6C1-4A20-A466-98957DD94D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B352840-37E7-4EFC-B0C1-97524A4750EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -1207,16 +1207,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,11 +1224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,6 +1237,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,2198 +1591,2198 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.59765625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="117.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" ht="117.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" spans="1:8" ht="57.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:8" ht="67.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+    <row r="51" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F97" s="4"/>
-    </row>
-    <row r="100" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G103" s="4"/>
-    </row>
-    <row r="105" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F113" s="4"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G117" s="4"/>
-    </row>
-    <row r="119" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F125" s="4"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F127" s="4"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H130" s="4"/>
-    </row>
-    <row r="132" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F133" s="4"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H137" s="4"/>
-    </row>
-    <row r="139" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F140" s="4"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="6:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="6:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="6:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F157" s="4"/>
-    </row>
-    <row r="158" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F158" s="4"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="6:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F163" s="4"/>
-    </row>
-    <row r="164" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F164" s="4"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G166" s="4"/>
-    </row>
-    <row r="168" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F168" s="4"/>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-    </row>
-    <row r="174" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F175" s="4"/>
-      <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-    </row>
-    <row r="180" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F182" s="4"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F183" s="4"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F187" s="4"/>
-      <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F188" s="4"/>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="6:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-    </row>
-    <row r="191" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H192" s="4"/>
+    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="100" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+    </row>
+    <row r="105" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="119" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="132" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="139" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="6:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="6:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="6:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="3"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="6:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="3"/>
+    </row>
+    <row r="168" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="174" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="3"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="3"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="6:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="191" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="6:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>